--- a/biology/Botanique/Chrysalidocarpus/Chrysalidocarpus.xlsx
+++ b/biology/Botanique/Chrysalidocarpus/Chrysalidocarpus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chrysalidocarpus  est un genre végétal de la famille des Arecaceae. Ce genre, précédemment synonymisé, a été recrée après une nouvelle étude phylogénomique de la sous-tribu des Dypsidinae  (Eiserhardt et al.) en 2022  [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chrysalidocarpus  est un genre végétal de la famille des Arecaceae. Ce genre, précédemment synonymisé, a été recrée après une nouvelle étude phylogénomique de la sous-tribu des Dypsidinae  (Eiserhardt et al.) en 2022  .
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous-famille des Arecoideae
 Tribu des Areceae
-Sous-tribu des Dypsidinae  [1]
-Ce genre partage sa sous-tribu avec les genres suivant:  Dypsis, Vonitra, Lemurophoenix, Marojejya, Masoala [1],[2].
+Sous-tribu des Dypsidinae  
+Ce genre partage sa sous-tribu avec les genres suivant:  Dypsis, Vonitra, Lemurophoenix, Marojejya, Masoala ,.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ceci est la liste des 15 espèces acceptées par la base Powo (pour le moment) , à partir d'une importante révision (Eiserhardt et al., 2022)[1]. Cette étude phylogénomique reprend tout le genre Dypsis en transférant certaines espèces  vers une résurrection de deux genres précédemment synonymisés Chrysalidocarpus et Vonitra. Les clefs vers ce genre préfigure des palmiers généralement avec des tailles modérés à très robustes (feuilles (env. 30–) 175–675 cm de long, tige 2–40(–60) cm de large) ; inflorescences toujours ramifiées ; et surtout des fleurs toujours à 6 étamines.
-La base de donnée de  Kew Royal Botanic Gardens, Plants of the World Online, ne prend en compte, sur cette révision suite a l'étude de Eiserhardt,  qu'une quinzaine de taxons sur la cinquantaine proposé pour rejoindre le genre Chrysalidocarpus  dans l'étude Phylogenomics and generic limits of Dypsidinae (Arecaceae)...[1]. Ceci n'est nullement le fait d'une divergence de vue dans l'étude de ces taxons, mais c'est simplement l'expression d'un manque de moyens attribués à la recherche et aux études. Chrysalidocarpus va donc encore rester, un certain temps avec seulement ces quelques espèces[3].    
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ceci est la liste des 15 espèces acceptées par la base Powo (pour le moment) , à partir d'une importante révision (Eiserhardt et al., 2022). Cette étude phylogénomique reprend tout le genre Dypsis en transférant certaines espèces  vers une résurrection de deux genres précédemment synonymisés Chrysalidocarpus et Vonitra. Les clefs vers ce genre préfigure des palmiers généralement avec des tailles modérés à très robustes (feuilles (env. 30–) 175–675 cm de long, tige 2–40(–60) cm de large) ; inflorescences toujours ramifiées ; et surtout des fleurs toujours à 6 étamines.
+La base de donnée de  Kew Royal Botanic Gardens, Plants of the World Online, ne prend en compte, sur cette révision suite a l'étude de Eiserhardt,  qu'une quinzaine de taxons sur la cinquantaine proposé pour rejoindre le genre Chrysalidocarpus  dans l'étude Phylogenomics and generic limits of Dypsidinae (Arecaceae).... Ceci n'est nullement le fait d'une divergence de vue dans l'étude de ces taxons, mais c'est simplement l'expression d'un manque de moyens attribués à la recherche et aux études. Chrysalidocarpus va donc encore rester, un certain temps avec seulement ces quelques espèces.    
  Chrysalidocarpus acuminum  			Jum. 
  Chrysalidocarpus ankaizinensis  		Jum. 
  Chrysalidocarpus arenarum  			Jum. 
